--- a/VersionRecords/Version 5.3.2 20170228/版本Bug和特性计划及评审表v5.3.3_马丁组.xlsx
+++ b/VersionRecords/Version 5.3.2 20170228/版本Bug和特性计划及评审表v5.3.3_马丁组.xlsx
@@ -1420,8 +1420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:Q5"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1522,7 +1522,7 @@
     </row>
     <row r="2" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A2" s="50">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B2" s="50" t="s">
         <v>68</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="3" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="50">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B3" s="50" t="s">
         <v>68</v>
@@ -1644,7 +1644,7 @@
     </row>
     <row r="4" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A4" s="50">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B4" s="50" t="s">
         <v>68</v>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="5" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A5" s="50">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B5" s="50" t="s">
         <v>68</v>
